--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H2">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I2">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J2">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N2">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O2">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P2">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q2">
-        <v>98.82566649371958</v>
+        <v>114.1492944382538</v>
       </c>
       <c r="R2">
-        <v>98.82566649371958</v>
+        <v>456.597177753015</v>
       </c>
       <c r="S2">
-        <v>0.01073555728234822</v>
+        <v>0.01051780318928843</v>
       </c>
       <c r="T2">
-        <v>0.01073555728234822</v>
+        <v>0.005921095175111039</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H3">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I3">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J3">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N3">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P3">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q3">
-        <v>25.28207184070181</v>
+        <v>27.2924292606525</v>
       </c>
       <c r="R3">
-        <v>25.28207184070181</v>
+        <v>163.754575563915</v>
       </c>
       <c r="S3">
-        <v>0.002746423475722737</v>
+        <v>0.002514745281026644</v>
       </c>
       <c r="T3">
-        <v>0.002746423475722737</v>
+        <v>0.002123548884041368</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H4">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I4">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J4">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N4">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O4">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P4">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q4">
-        <v>4.929083829239141</v>
+        <v>5.146791996330001</v>
       </c>
       <c r="R4">
-        <v>4.929083829239141</v>
+        <v>30.88075197798</v>
       </c>
       <c r="S4">
-        <v>0.0005354526174802574</v>
+        <v>0.0004742293462259261</v>
       </c>
       <c r="T4">
-        <v>0.0005354526174802574</v>
+        <v>0.0004004577348472467</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H5">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I5">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J5">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N5">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O5">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P5">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q5">
-        <v>7.004480825436584</v>
+        <v>7.341690553650002</v>
       </c>
       <c r="R5">
-        <v>7.004480825436584</v>
+        <v>44.05014332190001</v>
       </c>
       <c r="S5">
-        <v>0.0007609056210044689</v>
+        <v>0.0006764689760015829</v>
       </c>
       <c r="T5">
-        <v>0.0007609056210044689</v>
+        <v>0.000571236757024676</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H6">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I6">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J6">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N6">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O6">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P6">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q6">
-        <v>74.12286079708628</v>
+        <v>82.29387624889503</v>
       </c>
       <c r="R6">
-        <v>74.12286079708628</v>
+        <v>493.7632574933701</v>
       </c>
       <c r="S6">
-        <v>0.008052060221311167</v>
+        <v>0.007582620622659506</v>
       </c>
       <c r="T6">
-        <v>0.008052060221311167</v>
+        <v>0.006403060255384589</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.0859054600736</v>
+        <v>20.5638075</v>
       </c>
       <c r="H7">
-        <v>20.0859054600736</v>
+        <v>41.12761500000001</v>
       </c>
       <c r="I7">
-        <v>0.02414520628986946</v>
+        <v>0.02292499933614166</v>
       </c>
       <c r="J7">
-        <v>0.02414520628986946</v>
+        <v>0.01607194290719437</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N7">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O7">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P7">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q7">
-        <v>12.10339452195556</v>
+        <v>12.5800120571625</v>
       </c>
       <c r="R7">
-        <v>12.10339452195556</v>
+        <v>50.32004822865001</v>
       </c>
       <c r="S7">
-        <v>0.001314807072002608</v>
+        <v>0.001159131920939578</v>
       </c>
       <c r="T7">
-        <v>0.001314807072002608</v>
+        <v>0.0006525441007854476</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>692.584010109969</v>
+        <v>742.921651</v>
       </c>
       <c r="H8">
-        <v>692.584010109969</v>
+        <v>2228.764953</v>
       </c>
       <c r="I8">
-        <v>0.8325531468029204</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J8">
-        <v>0.8325531468029204</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N8">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O8">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P8">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q8">
-        <v>3407.617174045979</v>
+        <v>4123.943597728805</v>
       </c>
       <c r="R8">
-        <v>3407.617174045979</v>
+        <v>24743.66158637283</v>
       </c>
       <c r="S8">
-        <v>0.3701737682751579</v>
+        <v>0.3799833134150484</v>
       </c>
       <c r="T8">
-        <v>0.3701737682751579</v>
+        <v>0.3208727131311864</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>692.584010109969</v>
+        <v>742.921651</v>
       </c>
       <c r="H9">
-        <v>692.584010109969</v>
+        <v>2228.764953</v>
       </c>
       <c r="I9">
-        <v>0.8325531468029204</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J9">
-        <v>0.8325531468029204</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N9">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P9">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q9">
-        <v>871.7535156245541</v>
+        <v>986.0108156587569</v>
       </c>
       <c r="R9">
-        <v>871.7535156245541</v>
+        <v>8874.097340928811</v>
       </c>
       <c r="S9">
-        <v>0.09469968819962982</v>
+        <v>0.09085178977797634</v>
       </c>
       <c r="T9">
-        <v>0.09469968819962982</v>
+        <v>0.1150781860006631</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>692.584010109969</v>
+        <v>742.921651</v>
       </c>
       <c r="H10">
-        <v>692.584010109969</v>
+        <v>2228.764953</v>
       </c>
       <c r="I10">
-        <v>0.8325531468029204</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J10">
-        <v>0.8325531468029204</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N10">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O10">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P10">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q10">
-        <v>169.9602067434074</v>
+        <v>185.941402498884</v>
       </c>
       <c r="R10">
-        <v>169.9602067434074</v>
+        <v>1673.472622489956</v>
       </c>
       <c r="S10">
-        <v>0.01846299245884218</v>
+        <v>0.01713278286867914</v>
       </c>
       <c r="T10">
-        <v>0.01846299245884218</v>
+        <v>0.02170138396270511</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>692.584010109969</v>
+        <v>742.921651</v>
       </c>
       <c r="H11">
-        <v>692.584010109969</v>
+        <v>2228.764953</v>
       </c>
       <c r="I11">
-        <v>0.8325531468029204</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J11">
-        <v>0.8325531468029204</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N11">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O11">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P11">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q11">
-        <v>241.522167295986</v>
+        <v>265.2378878400201</v>
       </c>
       <c r="R11">
-        <v>241.522167295986</v>
+        <v>2387.14099056018</v>
       </c>
       <c r="S11">
-        <v>0.02623685884403043</v>
+        <v>0.02443922160336189</v>
       </c>
       <c r="T11">
-        <v>0.02623685884403043</v>
+        <v>0.03095614622734565</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>692.584010109969</v>
+        <v>742.921651</v>
       </c>
       <c r="H12">
-        <v>692.584010109969</v>
+        <v>2228.764953</v>
       </c>
       <c r="I12">
-        <v>0.8325531468029204</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J12">
-        <v>0.8325531468029204</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N12">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O12">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P12">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q12">
-        <v>2555.837389243637</v>
+        <v>2973.08280142278</v>
       </c>
       <c r="R12">
-        <v>2555.837389243637</v>
+        <v>26757.74521280501</v>
       </c>
       <c r="S12">
-        <v>0.2776438517450942</v>
+        <v>0.2739421204897414</v>
       </c>
       <c r="T12">
-        <v>0.2776438517450942</v>
+        <v>0.3469910980529359</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>692.584010109969</v>
+        <v>742.921651</v>
       </c>
       <c r="H13">
-        <v>692.584010109969</v>
+        <v>2228.764953</v>
       </c>
       <c r="I13">
-        <v>0.8325531468029204</v>
+        <v>0.828225918569811</v>
       </c>
       <c r="J13">
-        <v>0.8325531468029204</v>
+        <v>0.8709618361816441</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N13">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O13">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P13">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q13">
-        <v>417.3382937912274</v>
+        <v>454.486034607505</v>
       </c>
       <c r="R13">
-        <v>417.3382937912274</v>
+        <v>2726.91620764503</v>
       </c>
       <c r="S13">
-        <v>0.04533598728016595</v>
+        <v>0.04187669041500379</v>
       </c>
       <c r="T13">
-        <v>0.04533598728016595</v>
+        <v>0.03536230880680791</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.329712846190816</v>
+        <v>0.631401</v>
       </c>
       <c r="H14">
-        <v>0.329712846190816</v>
+        <v>1.894203</v>
       </c>
       <c r="I14">
-        <v>0.0003963468166034114</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J14">
-        <v>0.0003963468166034114</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N14">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O14">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P14">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q14">
-        <v>1.62223663957389</v>
+        <v>3.5048946386805</v>
       </c>
       <c r="R14">
-        <v>1.62223663957389</v>
+        <v>21.029367832083</v>
       </c>
       <c r="S14">
-        <v>0.000176225620201371</v>
+        <v>0.000322943669430863</v>
       </c>
       <c r="T14">
-        <v>0.000176225620201371</v>
+        <v>0.0002727062156164624</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.329712846190816</v>
+        <v>0.631401</v>
       </c>
       <c r="H15">
-        <v>0.329712846190816</v>
+        <v>1.894203</v>
       </c>
       <c r="I15">
-        <v>0.0003963468166034114</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J15">
-        <v>0.0003963468166034114</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N15">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P15">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q15">
-        <v>0.4150086178971756</v>
+        <v>0.8379998270069998</v>
       </c>
       <c r="R15">
-        <v>0.4150086178971756</v>
+        <v>7.541998443062999</v>
       </c>
       <c r="S15">
-        <v>4.508291163800483E-05</v>
+        <v>7.72139442165807E-05</v>
       </c>
       <c r="T15">
-        <v>4.508291163800483E-05</v>
+        <v>9.780369386354668E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.329712846190816</v>
+        <v>0.631401</v>
       </c>
       <c r="H16">
-        <v>0.329712846190816</v>
+        <v>1.894203</v>
       </c>
       <c r="I16">
-        <v>0.0003963468166034114</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J16">
-        <v>0.0003963468166034114</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N16">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O16">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P16">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q16">
-        <v>0.08091157561614888</v>
+        <v>0.158029567884</v>
       </c>
       <c r="R16">
-        <v>0.08091157561614888</v>
+        <v>1.422266110956</v>
       </c>
       <c r="S16">
-        <v>8.789526907844513E-06</v>
+        <v>1.456096510514388E-05</v>
       </c>
       <c r="T16">
-        <v>8.789526907844513E-06</v>
+        <v>1.844376929517695E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.329712846190816</v>
+        <v>0.631401</v>
       </c>
       <c r="H17">
-        <v>0.329712846190816</v>
+        <v>1.894203</v>
       </c>
       <c r="I17">
-        <v>0.0003963468166034114</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J17">
-        <v>0.0003963468166034114</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N17">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O17">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P17">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q17">
-        <v>0.1149794971222188</v>
+        <v>0.22542278502</v>
       </c>
       <c r="R17">
-        <v>0.1149794971222188</v>
+        <v>2.02880506518</v>
       </c>
       <c r="S17">
-        <v>1.249036835718804E-05</v>
+        <v>2.077062761438393E-05</v>
       </c>
       <c r="T17">
-        <v>1.249036835718804E-05</v>
+        <v>2.630929070082017E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.329712846190816</v>
+        <v>0.631401</v>
       </c>
       <c r="H18">
-        <v>0.329712846190816</v>
+        <v>1.894203</v>
       </c>
       <c r="I18">
-        <v>0.0003963468166034114</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J18">
-        <v>0.0003963468166034114</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N18">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O18">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P18">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q18">
-        <v>1.216736753530623</v>
+        <v>2.526790612946</v>
       </c>
       <c r="R18">
-        <v>1.216736753530623</v>
+        <v>22.741115516514</v>
       </c>
       <c r="S18">
-        <v>0.0001321756541444275</v>
+        <v>0.0002328204173165808</v>
       </c>
       <c r="T18">
-        <v>0.0001321756541444275</v>
+        <v>0.000294903945802115</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.329712846190816</v>
+        <v>0.631401</v>
       </c>
       <c r="H19">
-        <v>0.329712846190816</v>
+        <v>1.894203</v>
       </c>
       <c r="I19">
-        <v>0.0003963468166034114</v>
+        <v>0.0007039001656594569</v>
       </c>
       <c r="J19">
-        <v>0.0003963468166034114</v>
+        <v>0.0007402209554489431</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N19">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O19">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P19">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q19">
-        <v>0.1986788529069217</v>
+        <v>0.386262718755</v>
       </c>
       <c r="R19">
-        <v>0.1986788529069217</v>
+        <v>2.31757631253</v>
       </c>
       <c r="S19">
-        <v>2.158273535457556E-05</v>
+        <v>3.559054197590455E-05</v>
       </c>
       <c r="T19">
-        <v>2.158273535457556E-05</v>
+        <v>3.005404017082189E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.04896403377959</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H20">
-        <v>1.04896403377959</v>
+        <v>3.218665</v>
       </c>
       <c r="I20">
-        <v>0.001260956496913084</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J20">
-        <v>0.001260956496913084</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N20">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O20">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P20">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q20">
-        <v>5.161060325225125</v>
+        <v>5.955582217010834</v>
       </c>
       <c r="R20">
-        <v>5.161060325225125</v>
+        <v>35.733493302065</v>
       </c>
       <c r="S20">
-        <v>0.0005606525179633392</v>
+        <v>0.0005487518950021136</v>
       </c>
       <c r="T20">
-        <v>0.0005606525179633392</v>
+        <v>0.0004633874782624466</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.04896403377959</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H21">
-        <v>1.04896403377959</v>
+        <v>3.218665</v>
       </c>
       <c r="I21">
-        <v>0.001260956496913084</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J21">
-        <v>0.001260956496913084</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N21">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P21">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q21">
-        <v>1.320328033657427</v>
+        <v>1.423944906218333</v>
       </c>
       <c r="R21">
-        <v>1.320328033657427</v>
+        <v>12.815504155965</v>
       </c>
       <c r="S21">
-        <v>0.0001434289060698649</v>
+        <v>0.0001312033714242142</v>
       </c>
       <c r="T21">
-        <v>0.0001434289060698649</v>
+        <v>0.0001661898573222155</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.04896403377959</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H22">
-        <v>1.04896403377959</v>
+        <v>3.218665</v>
       </c>
       <c r="I22">
-        <v>0.001260956496913084</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J22">
-        <v>0.001260956496913084</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N22">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O22">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P22">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q22">
-        <v>0.2574159112037108</v>
+        <v>0.26852678362</v>
       </c>
       <c r="R22">
-        <v>0.2574159112037108</v>
+        <v>2.41674105258</v>
       </c>
       <c r="S22">
-        <v>2.796341636907578E-05</v>
+        <v>2.474226297294848E-05</v>
       </c>
       <c r="T22">
-        <v>2.796341636907578E-05</v>
+        <v>3.133999613476525E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.04896403377959</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H23">
-        <v>1.04896403377959</v>
+        <v>3.218665</v>
       </c>
       <c r="I23">
-        <v>0.001260956496913084</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J23">
-        <v>0.001260956496913084</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N23">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O23">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P23">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q23">
-        <v>0.3658012070099044</v>
+        <v>0.3830425927666667</v>
       </c>
       <c r="R23">
-        <v>0.3658012070099044</v>
+        <v>3.4473833349</v>
       </c>
       <c r="S23">
-        <v>3.973744828785463E-05</v>
+        <v>3.52938371074542E-05</v>
       </c>
       <c r="T23">
-        <v>3.973744828785463E-05</v>
+        <v>4.470523653143585E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.04896403377959</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H24">
-        <v>1.04896403377959</v>
+        <v>3.218665</v>
       </c>
       <c r="I24">
-        <v>0.001260956496913084</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J24">
-        <v>0.001260956496913084</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N24">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O24">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P24">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q24">
-        <v>3.870983820547652</v>
+        <v>4.293569648141112</v>
       </c>
       <c r="R24">
-        <v>3.870983820547652</v>
+        <v>38.64212683327001</v>
       </c>
       <c r="S24">
-        <v>0.0004205098737904639</v>
+        <v>0.0003956127872790153</v>
       </c>
       <c r="T24">
-        <v>0.0004205098737904639</v>
+        <v>0.0005011062746258794</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.04896403377959</v>
+        <v>1.072888333333333</v>
       </c>
       <c r="H25">
-        <v>1.04896403377959</v>
+        <v>3.218665</v>
       </c>
       <c r="I25">
-        <v>0.001260956496913084</v>
+        <v>0.001196080265263172</v>
       </c>
       <c r="J25">
-        <v>0.001260956496913084</v>
+        <v>0.001257797227419697</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N25">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O25">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P25">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q25">
-        <v>0.6320862938149953</v>
+        <v>0.6563448023583335</v>
       </c>
       <c r="R25">
-        <v>0.6320862938149953</v>
+        <v>3.938068814150001</v>
       </c>
       <c r="S25">
-        <v>6.866433443248585E-05</v>
+        <v>6.047611147742603E-05</v>
       </c>
       <c r="T25">
-        <v>6.866433443248585E-05</v>
+        <v>5.106838454295472E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>17.3985232690641</v>
+        <v>20.33651533333333</v>
       </c>
       <c r="H26">
-        <v>17.3985232690641</v>
+        <v>61.009546</v>
       </c>
       <c r="I26">
-        <v>0.02091471227451985</v>
+        <v>0.02267160886990901</v>
       </c>
       <c r="J26">
-        <v>0.02091471227451985</v>
+        <v>0.02384144911164551</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N26">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O26">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P26">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q26">
-        <v>85.6033431746247</v>
+        <v>112.8876000532843</v>
       </c>
       <c r="R26">
-        <v>85.6033431746247</v>
+        <v>677.3256003197059</v>
       </c>
       <c r="S26">
-        <v>0.009299199558346509</v>
+        <v>0.01040154970483683</v>
       </c>
       <c r="T26">
-        <v>0.009299199558346509</v>
+        <v>0.008783473791424933</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>17.3985232690641</v>
+        <v>20.33651533333333</v>
       </c>
       <c r="H27">
-        <v>17.3985232690641</v>
+        <v>61.009546</v>
       </c>
       <c r="I27">
-        <v>0.02091471227451985</v>
+        <v>0.02267160886990901</v>
       </c>
       <c r="J27">
-        <v>0.02091471227451985</v>
+        <v>0.02384144911164551</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N27">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O27">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P27">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q27">
-        <v>21.89947155157968</v>
+        <v>26.99076550600733</v>
       </c>
       <c r="R27">
-        <v>21.89947155157968</v>
+        <v>242.916889554066</v>
       </c>
       <c r="S27">
-        <v>0.002378967323332749</v>
+        <v>0.002486949752229785</v>
       </c>
       <c r="T27">
-        <v>0.002378967323332749</v>
+        <v>0.003150115885012308</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>17.3985232690641</v>
+        <v>20.33651533333333</v>
       </c>
       <c r="H28">
-        <v>17.3985232690641</v>
+        <v>61.009546</v>
       </c>
       <c r="I28">
-        <v>0.02091471227451985</v>
+        <v>0.02267160886990901</v>
       </c>
       <c r="J28">
-        <v>0.02091471227451985</v>
+        <v>0.02384144911164551</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N28">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O28">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P28">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q28">
-        <v>4.269599887774763</v>
+        <v>5.089904403688</v>
       </c>
       <c r="R28">
-        <v>4.269599887774763</v>
+        <v>45.809139633192</v>
       </c>
       <c r="S28">
-        <v>0.0004638120418932511</v>
+        <v>0.0004689876799829112</v>
       </c>
       <c r="T28">
-        <v>0.0004638120418932511</v>
+        <v>0.0005940472015024187</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>17.3985232690641</v>
+        <v>20.33651533333333</v>
       </c>
       <c r="H29">
-        <v>17.3985232690641</v>
+        <v>61.009546</v>
       </c>
       <c r="I29">
-        <v>0.02091471227451985</v>
+        <v>0.02267160886990901</v>
       </c>
       <c r="J29">
-        <v>0.02091471227451985</v>
+        <v>0.02384144911164551</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N29">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O29">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P29">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q29">
-        <v>6.067320334217343</v>
+        <v>7.260542704306668</v>
       </c>
       <c r="R29">
-        <v>6.067320334217343</v>
+        <v>65.34488433876001</v>
       </c>
       <c r="S29">
-        <v>0.0006591006902289488</v>
+        <v>0.0006689919511734629</v>
       </c>
       <c r="T29">
-        <v>0.0006591006902289488</v>
+        <v>0.0008473842989579579</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>17.3985232690641</v>
+        <v>20.33651533333333</v>
       </c>
       <c r="H30">
-        <v>17.3985232690641</v>
+        <v>61.009546</v>
       </c>
       <c r="I30">
-        <v>0.02091471227451985</v>
+        <v>0.02267160886990901</v>
       </c>
       <c r="J30">
-        <v>0.02091471227451985</v>
+        <v>0.02384144911164551</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N30">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O30">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P30">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q30">
-        <v>64.20563518588716</v>
+        <v>81.38428042448314</v>
       </c>
       <c r="R30">
-        <v>64.20563518588716</v>
+        <v>732.4585238203481</v>
       </c>
       <c r="S30">
-        <v>0.006974739446168558</v>
+        <v>0.007498809768549167</v>
       </c>
       <c r="T30">
-        <v>0.006974739446168558</v>
+        <v>0.009498430657641048</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>17.3985232690641</v>
+        <v>20.33651533333333</v>
       </c>
       <c r="H31">
-        <v>17.3985232690641</v>
+        <v>61.009546</v>
       </c>
       <c r="I31">
-        <v>0.02091471227451985</v>
+        <v>0.02267160886990901</v>
       </c>
       <c r="J31">
-        <v>0.02091471227451985</v>
+        <v>0.02384144911164551</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N31">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O31">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P31">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q31">
-        <v>10.4840277996676</v>
+        <v>12.44096493774333</v>
       </c>
       <c r="R31">
-        <v>10.4840277996676</v>
+        <v>74.64578962646</v>
       </c>
       <c r="S31">
-        <v>0.00113889321454984</v>
+        <v>0.00114632001313686</v>
       </c>
       <c r="T31">
-        <v>0.00113889321454984</v>
+        <v>0.0009679972771068392</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>100.432521958775</v>
+        <v>111.4773615</v>
       </c>
       <c r="H32">
-        <v>100.432521958775</v>
+        <v>222.954723</v>
       </c>
       <c r="I32">
-        <v>0.1207296313191738</v>
+        <v>0.1242774927932157</v>
       </c>
       <c r="J32">
-        <v>0.1207296313191738</v>
+        <v>0.08712675361664747</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N32">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O32">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P32">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q32">
-        <v>494.1430666369719</v>
+        <v>618.8086598779507</v>
       </c>
       <c r="R32">
-        <v>494.1430666369719</v>
+        <v>2475.234639511803</v>
       </c>
       <c r="S32">
-        <v>0.0536793870031077</v>
+        <v>0.05701750263506205</v>
       </c>
       <c r="T32">
-        <v>0.0536793870031077</v>
+        <v>0.03209853366463186</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>100.432521958775</v>
+        <v>111.4773615</v>
       </c>
       <c r="H33">
-        <v>100.432521958775</v>
+        <v>222.954723</v>
       </c>
       <c r="I33">
-        <v>0.1207296313191738</v>
+        <v>0.1242774927932157</v>
       </c>
       <c r="J33">
-        <v>0.1207296313191738</v>
+        <v>0.08712675361664747</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N33">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O33">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P33">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q33">
-        <v>126.4141285714937</v>
+        <v>147.9535345243305</v>
       </c>
       <c r="R33">
-        <v>126.4141285714937</v>
+        <v>887.7212071459829</v>
       </c>
       <c r="S33">
-        <v>0.01373252684983056</v>
+        <v>0.0136325516942048</v>
       </c>
       <c r="T33">
-        <v>0.01373252684983056</v>
+        <v>0.01151185774371799</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>100.432521958775</v>
+        <v>111.4773615</v>
       </c>
       <c r="H34">
-        <v>100.432521958775</v>
+        <v>222.954723</v>
       </c>
       <c r="I34">
-        <v>0.1207296313191738</v>
+        <v>0.1242774927932157</v>
       </c>
       <c r="J34">
-        <v>0.1207296313191738</v>
+        <v>0.08712675361664747</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N34">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O34">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P34">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q34">
-        <v>24.64615403576079</v>
+        <v>27.900999945666</v>
       </c>
       <c r="R34">
-        <v>24.64615403576079</v>
+        <v>167.405999673996</v>
       </c>
       <c r="S34">
-        <v>0.002677342919385246</v>
+        <v>0.002570819448836808</v>
       </c>
       <c r="T34">
-        <v>0.002677342919385246</v>
+        <v>0.002170900095861998</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>100.432521958775</v>
+        <v>111.4773615</v>
       </c>
       <c r="H35">
-        <v>100.432521958775</v>
+        <v>222.954723</v>
       </c>
       <c r="I35">
-        <v>0.1207296313191738</v>
+        <v>0.1242774927932157</v>
       </c>
       <c r="J35">
-        <v>0.1207296313191738</v>
+        <v>0.08712675361664747</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N35">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O35">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P35">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q35">
-        <v>35.0234484429312</v>
+        <v>39.79964760273</v>
       </c>
       <c r="R35">
-        <v>35.0234484429312</v>
+        <v>238.79788561638</v>
       </c>
       <c r="S35">
-        <v>0.003804641550364373</v>
+        <v>0.00366716993345047</v>
       </c>
       <c r="T35">
-        <v>0.003804641550364373</v>
+        <v>0.003096701156384948</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>100.432521958775</v>
+        <v>111.4773615</v>
       </c>
       <c r="H36">
-        <v>100.432521958775</v>
+        <v>222.954723</v>
       </c>
       <c r="I36">
-        <v>0.1207296313191738</v>
+        <v>0.1242774927932157</v>
       </c>
       <c r="J36">
-        <v>0.1207296313191738</v>
+        <v>0.08712675361664747</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N36">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O36">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P36">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q36">
-        <v>370.625355150074</v>
+        <v>446.1189491213791</v>
       </c>
       <c r="R36">
-        <v>370.625355150074</v>
+        <v>2676.713694728274</v>
       </c>
       <c r="S36">
-        <v>0.04026150160856374</v>
+        <v>0.04110574076661478</v>
       </c>
       <c r="T36">
-        <v>0.04026150160856374</v>
+        <v>0.03471128888926771</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>100.432521958775</v>
+        <v>111.4773615</v>
       </c>
       <c r="H37">
-        <v>100.432521958775</v>
+        <v>222.954723</v>
       </c>
       <c r="I37">
-        <v>0.1207296313191738</v>
+        <v>0.1242774927932157</v>
       </c>
       <c r="J37">
-        <v>0.1207296313191738</v>
+        <v>0.08712675361664747</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N37">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O37">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P37">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q37">
-        <v>60.5187771354553</v>
+        <v>68.1968332844325</v>
       </c>
       <c r="R37">
-        <v>60.5187771354553</v>
+        <v>272.78733313773</v>
       </c>
       <c r="S37">
-        <v>0.006574231387922238</v>
+        <v>0.006283708315046754</v>
       </c>
       <c r="T37">
-        <v>0.006574231387922238</v>
+        <v>0.003537472066782952</v>
       </c>
     </row>
   </sheetData>
